--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugawarataiki/souce/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87758EE5-97CC-AB41-BD62-6C31E112A10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F920AEAB-02E6-F748-A241-99F7CE11853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27420" windowHeight="16940" xr2:uid="{378FB706-82B0-804A-8951-7FA37704B0D9}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27420" windowHeight="16940" activeTab="1" xr2:uid="{378FB706-82B0-804A-8951-7FA37704B0D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
   <si>
     <t>apple</t>
     <phoneticPr fontId="1"/>
@@ -445,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454FC7D8-F5F4-3746-B9CB-207291BE4B2B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -715,4 +716,280 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B369E3-FBB4-C04C-AF8D-53A305AF4C14}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>